--- a/predictions/Case scenarios of collections.xlsx
+++ b/predictions/Case scenarios of collections.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b511a50edbd69fea/Documentos/Github Proyects/Credit-default-model/predictions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="864" documentId="8_{F61F1D14-5F96-4CD4-82B2-3CCF8C5042FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{021D7DC2-5CE1-4A72-98B9-0D59A6A964CE}"/>
+  <xr:revisionPtr revIDLastSave="1110" documentId="8_{F61F1D14-5F96-4CD4-82B2-3CCF8C5042FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E3B267C-4A92-4958-A920-78668FF3256F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E06815C3-D8EC-40BE-AF15-B3E61E3D0F0F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Portfolio" sheetId="3" r:id="rId1"/>
+    <sheet name="Testing data sample" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>Defaults</t>
   </si>
@@ -107,9 +108,6 @@
     <t>Precision No Alerts</t>
   </si>
   <si>
-    <t>Precision alerts</t>
-  </si>
-  <si>
     <t>Good-intense</t>
   </si>
   <si>
@@ -162,17 +160,42 @@
   </si>
   <si>
     <t>Intense follow-up</t>
+  </si>
+  <si>
+    <t>Total good</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Imrpovement</t>
+  </si>
+  <si>
+    <t>Reduction points</t>
+  </si>
+  <si>
+    <t>Portfolio level</t>
+  </si>
+  <si>
+    <t>Portfolio saved</t>
+  </si>
+  <si>
+    <t>Avg loan</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="174" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -258,12 +281,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -272,21 +292,27 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,7 +421,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$15</c:f>
+              <c:f>Portfolio!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -418,7 +444,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$14:$J$14</c:f>
+              <c:f>Portfolio!$B$16:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -454,36 +480,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$15:$J$15</c:f>
+              <c:f>Portfolio!$B$17:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8.5427063339731268E-2</c:v>
+                  <c:v>8.9899232245681332E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.510316698656431E-2</c:v>
+                  <c:v>8.9575335892514263E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4779270633397241E-2</c:v>
+                  <c:v>8.9251439539347402E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4131477927063311E-2</c:v>
+                  <c:v>8.8603646833013486E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3807581573896339E-2</c:v>
+                  <c:v>8.8279750479846403E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3483685220729381E-2</c:v>
+                  <c:v>8.7955854126679334E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.283589251439534E-2</c:v>
+                  <c:v>8.7308061420345404E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2511996161228368E-2</c:v>
+                  <c:v>8.6984165067178543E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2259357005758149E-2</c:v>
+                  <c:v>8.6731525911708213E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -491,7 +517,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A2C8-4EEC-83A3-9215D1C76C7F}"/>
+              <c16:uniqueId val="{00000000-62B8-4FC8-919D-9D2FFFF4BAA3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -528,6 +554,562 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Alert</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> resources %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872724479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="872724479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Charged</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>-pff</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872726559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Optimization</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> intense follow-ups</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Testing data sample'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Charged-off %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Testing data sample'!$B$14:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Testing data sample'!$B$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.5941758850304505E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5581938760349535E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5222118670394578E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4502478490484497E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4142658400529401E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3782838310574431E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3106376541459031E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3106376541459031E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3106376541459031E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0546-46B3-9D0A-07799CB8758D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="872726559"/>
+        <c:axId val="872724479"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="872726559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Alert</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> resources %</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -786,6 +1368,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1302,7 +1924,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF9740D-1E52-4C39-9B01-BD7CBFCCD6EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1322,11 +2503,13 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC05AB1D-EFE5-6FF7-CFB7-09D71F4AB1E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1370A2-98F0-4DC8-B997-98CA9F9D198C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1639,10 +2822,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9AF96B-987F-40D9-B5EC-FCC218D8C271}">
-  <dimension ref="A1:R15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E8E107-4431-4C3D-BEE3-A95E95AE3123}">
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -1652,470 +2835,533 @@
     <col min="8" max="8" width="16.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="1" customWidth="1"/>
-    <col min="11" max="16" width="11.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="13.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="16" width="11.109375" style="1" customWidth="1"/>
     <col min="17" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="J1" s="19" t="s">
+      <c r="H1" s="22"/>
+      <c r="J1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>100</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>4168</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="H2" s="12">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="7">
         <f>1-K3</f>
         <v>0</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <f>+L4*K2</f>
         <v>0</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="12">
         <v>0.11</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="14">
         <f>1-O2</f>
         <v>0.89</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>489</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="12">
         <v>0.2</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <f>+L4*K3</f>
         <v>500</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="12">
         <v>0.2</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="14">
         <f>1-O3</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>300</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7">
-        <f>+E3*0.2</f>
+      <c r="E4" s="6">
+        <f>+E3*O3</f>
         <v>97.800000000000011</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="J4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="7">
         <f>+K3+K2</f>
         <v>1</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4">
         <v>0.5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
-        <f>+E4/0.2</f>
+      <c r="E5" s="23">
+        <f>+E4/H3</f>
         <v>489.00000000000006</v>
       </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="23">
+        <f>+E2-E5</f>
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="10"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="7">
-        <f>+D9*H2</f>
-        <v>3311.1</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="A9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6">
+        <f>+B11-B10</f>
+        <v>3287.8</v>
+      </c>
+      <c r="C9" s="6">
         <f>+D9-B9</f>
-        <v>367.90000000000009</v>
-      </c>
-      <c r="D9" s="17">
+        <v>391.19999999999982</v>
+      </c>
+      <c r="D9" s="15">
         <f>+D11-D10</f>
         <v>3679</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f>+D9-F9</f>
         <v>3668</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f>+L2+IF(E10=0,L3-D10,0)</f>
-        <v>10.999999999999943</v>
-      </c>
-      <c r="G9" s="7">
+        <v>11</v>
+      </c>
+      <c r="G9" s="6">
         <f>+E9*P2</f>
         <v>3264.52</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f>+F9*O2</f>
-        <v>1.2099999999999937</v>
-      </c>
-      <c r="I9" s="7">
+        <v>1.21</v>
+      </c>
+      <c r="I9" s="6">
         <f>B9-G9</f>
-        <v>46.579999999999927</v>
-      </c>
-      <c r="J9" s="7">
+        <v>23.2800000000002</v>
+      </c>
+      <c r="J9" s="6">
         <f>+C9-H9</f>
-        <v>366.69000000000011</v>
-      </c>
-      <c r="K9" s="17">
+        <v>389.98999999999984</v>
+      </c>
+      <c r="K9" s="15">
         <f>+SUM(G9:J9)</f>
         <v>3679</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <f>+G9+I9+H9*$B$5+J9*$B$3</f>
-        <v>3385.0430000000001</v>
-      </c>
-      <c r="M9" s="7">
+        <v>3366.4030000000002</v>
+      </c>
+      <c r="M9" s="6">
         <f>+K9-L9</f>
-        <v>293.95699999999988</v>
-      </c>
-      <c r="N9" s="18">
+        <v>312.59699999999975</v>
+      </c>
+      <c r="N9" s="16">
         <f>+(G9+I9)*$B$2+(H9+J9)*$B$4</f>
-        <v>441480</v>
+        <v>446139.99999999994</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="A10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="6">
         <f>+D10-C10</f>
-        <v>391.20000000000005</v>
-      </c>
-      <c r="C10" s="7">
-        <f>+D10*H3</f>
+        <v>391.2</v>
+      </c>
+      <c r="C10" s="6">
+        <f>+C11*H3</f>
         <v>97.800000000000011</v>
       </c>
-      <c r="D10" s="17">
-        <f>+E5</f>
-        <v>489.00000000000006</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="15">
+        <f>+E3</f>
+        <v>489</v>
+      </c>
+      <c r="E10" s="6">
         <f>+D10-F10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f>IF(L3&lt;=D10,L3,D10)</f>
-        <v>489.00000000000006</v>
-      </c>
-      <c r="G10" s="7">
+        <v>489</v>
+      </c>
+      <c r="G10" s="6">
         <f>+E10*P3</f>
         <v>0</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f>+F10*O3</f>
         <v>97.800000000000011</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f>B10-G10</f>
-        <v>391.20000000000005</v>
-      </c>
-      <c r="J10" s="7">
+        <v>391.2</v>
+      </c>
+      <c r="J10" s="6">
         <f>+C10-H10</f>
         <v>0</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="15">
         <f>+SUM(G10:J10)</f>
-        <v>489.00000000000006</v>
-      </c>
-      <c r="L10" s="7">
+        <v>489</v>
+      </c>
+      <c r="L10" s="6">
         <f>+G10+I10+H10*$B$5+J10*$B$3</f>
         <v>440.1</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <f>+K10-L10</f>
-        <v>48.900000000000034</v>
-      </c>
-      <c r="N10" s="18">
+        <v>48.899999999999977</v>
+      </c>
+      <c r="N10" s="16">
         <f>+(G10+I10)*$B$2+(H10+J10)*$B$4</f>
-        <v>68460.000000000015</v>
+        <v>68460</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7">
-        <f>+B10+B9</f>
-        <v>3702.3</v>
-      </c>
-      <c r="C11" s="7">
-        <f>+C10+C9</f>
-        <v>465.7000000000001</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="B11" s="6">
+        <f>+E6</f>
+        <v>3679</v>
+      </c>
+      <c r="C11" s="6">
+        <f>E5</f>
+        <v>489.00000000000006</v>
+      </c>
+      <c r="D11" s="15">
         <f>+E2</f>
         <v>4168</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <f>+E10+E9</f>
         <v>3668</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f>+F10+F9</f>
         <v>500</v>
       </c>
-      <c r="G11" s="7">
-        <f t="shared" ref="G11:J11" si="0">+G9+G10</f>
+      <c r="G11" s="6">
+        <f t="shared" ref="G11" si="0">+G9+G10</f>
         <v>3264.52</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <f>+H9+H10</f>
         <v>99.01</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <f>+I9+I10</f>
-        <v>437.78</v>
-      </c>
-      <c r="J11" s="7">
+        <v>414.48000000000019</v>
+      </c>
+      <c r="J11" s="6">
         <f>+J9+J10</f>
-        <v>366.69000000000011</v>
-      </c>
-      <c r="K11" s="20">
+        <v>389.98999999999984</v>
+      </c>
+      <c r="K11" s="25">
         <f>+K9+K10</f>
         <v>4168</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="15">
         <f>+L10+L9</f>
-        <v>3825.143</v>
-      </c>
-      <c r="M11" s="17">
-        <f>+K11-L11</f>
-        <v>342.85699999999997</v>
-      </c>
-      <c r="N11" s="18">
+        <v>3806.5030000000002</v>
+      </c>
+      <c r="M11" s="15">
+        <f>K11-L11</f>
+        <v>361.49699999999984</v>
+      </c>
+      <c r="N11" s="16">
         <f>+N10+N9</f>
-        <v>509940</v>
-      </c>
+        <v>514599.99999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="24"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="21" t="s">
-        <v>38</v>
+      <c r="L13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="J14" s="22">
-        <v>1</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>14</v>
+      <c r="L14" s="27">
+        <f>+M11/K11</f>
+        <v>8.6731525911708213E-2</v>
+      </c>
+      <c r="M14" s="28">
+        <f>+(J17-C17)/C17*100</f>
+        <v>-3.1747689835274233</v>
+      </c>
+      <c r="N14" s="27">
+        <f>+(J17-C17)/C17</f>
+        <v>-3.1747689835274234E-2</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="J16" s="19">
+        <v>1</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="16">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="23">
-        <v>8.5427063339731268E-2</v>
-      </c>
-      <c r="C15" s="24">
-        <v>8.510316698656431E-2</v>
-      </c>
-      <c r="D15" s="23">
-        <v>8.4779270633397241E-2</v>
-      </c>
-      <c r="E15" s="23">
-        <v>8.4131477927063311E-2</v>
-      </c>
-      <c r="F15" s="23">
-        <v>8.3807581573896339E-2</v>
-      </c>
-      <c r="G15" s="23">
-        <v>8.3483685220729381E-2</v>
-      </c>
-      <c r="H15" s="23">
-        <v>8.283589251439534E-2</v>
-      </c>
-      <c r="I15" s="23">
-        <v>8.2511996161228368E-2</v>
-      </c>
-      <c r="J15" s="24">
-        <v>8.2259357005758149E-2</v>
-      </c>
-      <c r="L15" s="25">
-        <f>+M11/K11</f>
-        <v>8.2259357005758149E-2</v>
-      </c>
-      <c r="M15" s="11">
-        <f>+(J15-C15)/C15</f>
-        <v>-3.3416029996335257E-2</v>
+      <c r="B17" s="20">
+        <v>8.9899232245681332E-2</v>
+      </c>
+      <c r="C17" s="21">
+        <v>8.9575335892514263E-2</v>
+      </c>
+      <c r="D17" s="20">
+        <v>8.9251439539347402E-2</v>
+      </c>
+      <c r="E17" s="20">
+        <v>8.8603646833013486E-2</v>
+      </c>
+      <c r="F17" s="20">
+        <v>8.8279750479846403E-2</v>
+      </c>
+      <c r="G17" s="20">
+        <v>8.7955854126679334E-2</v>
+      </c>
+      <c r="H17" s="20">
+        <v>8.7308061420345404E-2</v>
+      </c>
+      <c r="I17" s="20">
+        <v>8.6984165067178543E-2</v>
+      </c>
+      <c r="J17" s="21">
+        <v>8.6731525911708213E-2</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L18" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="16">
+        <f>+E2*M16*M17</f>
+        <v>92529600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="16">
+        <f>+M14/100*M18*-1</f>
+        <v>2937601.041381991</v>
       </c>
     </row>
   </sheetData>
@@ -2126,7 +3372,564 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D11 M11" formula="1"/>
+    <ignoredError sqref="M11 C9" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904EDC11-6D84-4BDC-931F-71B71B18900A}">
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="11.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16" width="11.109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="D1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="G1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="J1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3335</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="7">
+        <f>1-K3</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="L2" s="2">
+        <f>+L4*K2</f>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="P2" s="14">
+        <f>1-O2</f>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
+        <v>394</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.222</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L3" s="2">
+        <f>+L4*K3</f>
+        <v>450</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="P3" s="14">
+        <f>1-O3</f>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>300</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6">
+        <f>+E3*O3</f>
+        <v>74.86</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="7">
+        <f>+K3+K2</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="23">
+        <f>+E4/H3</f>
+        <v>337.2072072072072</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="23">
+        <f>+E2-E5</f>
+        <v>2997.7927927927926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6">
+        <f>+B11-B10</f>
+        <v>2678.6527927927928</v>
+      </c>
+      <c r="C9" s="6">
+        <f>+D9-B9</f>
+        <v>262.34720720720725</v>
+      </c>
+      <c r="D9" s="15">
+        <f>+D11-D10</f>
+        <v>2941</v>
+      </c>
+      <c r="E9" s="6">
+        <f>+D9-F9</f>
+        <v>2835</v>
+      </c>
+      <c r="F9" s="6">
+        <f>+L2+IF(E10=0,L3-D10,0)</f>
+        <v>105.99999999999999</v>
+      </c>
+      <c r="G9" s="6">
+        <f>+E9*P2</f>
+        <v>2523.15</v>
+      </c>
+      <c r="H9" s="6">
+        <f>+F9*O2</f>
+        <v>11.659999999999998</v>
+      </c>
+      <c r="I9" s="6">
+        <f>B9-G9</f>
+        <v>155.50279279279266</v>
+      </c>
+      <c r="J9" s="6">
+        <f>+C9-H9</f>
+        <v>250.68720720720725</v>
+      </c>
+      <c r="K9" s="15">
+        <f>+SUM(G9:J9)</f>
+        <v>2941</v>
+      </c>
+      <c r="L9" s="6">
+        <f>+G9+I9+H9*$B$5+J9*$B$3</f>
+        <v>2734.620234234234</v>
+      </c>
+      <c r="M9" s="6">
+        <f>+K9-L9</f>
+        <v>206.37976576576602</v>
+      </c>
+      <c r="N9" s="16">
+        <f>+(G9+I9)*$B$2+(H9+J9)*$B$4</f>
+        <v>346569.44144144148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="6">
+        <f>+D10-C10</f>
+        <v>319.14</v>
+      </c>
+      <c r="C10" s="6">
+        <f>+C11*H3</f>
+        <v>74.86</v>
+      </c>
+      <c r="D10" s="15">
+        <f>+E3</f>
+        <v>394</v>
+      </c>
+      <c r="E10" s="6">
+        <f>+D10-F10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <f>IF(L3&lt;=D10,L3,D10)</f>
+        <v>394</v>
+      </c>
+      <c r="G10" s="6">
+        <f>+E10*P3</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <f>+F10*O3</f>
+        <v>74.86</v>
+      </c>
+      <c r="I10" s="6">
+        <f>B10-G10</f>
+        <v>319.14</v>
+      </c>
+      <c r="J10" s="6">
+        <f>+C10-H10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <f>+SUM(G10:J10)</f>
+        <v>394</v>
+      </c>
+      <c r="L10" s="6">
+        <f>+G10+I10+H10*$B$5+J10*$B$3</f>
+        <v>356.57</v>
+      </c>
+      <c r="M10" s="6">
+        <f>+K10-L10</f>
+        <v>37.430000000000007</v>
+      </c>
+      <c r="N10" s="16">
+        <f>+(G10+I10)*$B$2+(H10+J10)*$B$4</f>
+        <v>54372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6">
+        <f>+E6</f>
+        <v>2997.7927927927926</v>
+      </c>
+      <c r="C11" s="6">
+        <f>E5</f>
+        <v>337.2072072072072</v>
+      </c>
+      <c r="D11" s="15">
+        <f>+E2</f>
+        <v>3335</v>
+      </c>
+      <c r="E11" s="6">
+        <f>+E10+E9</f>
+        <v>2835</v>
+      </c>
+      <c r="F11" s="6">
+        <f>+F10+F9</f>
+        <v>500</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" ref="G11" si="0">+G9+G10</f>
+        <v>2523.15</v>
+      </c>
+      <c r="H11" s="6">
+        <f>+H9+H10</f>
+        <v>86.52</v>
+      </c>
+      <c r="I11" s="6">
+        <f>+I9+I10</f>
+        <v>474.64279279279265</v>
+      </c>
+      <c r="J11" s="6">
+        <f>+J9+J10</f>
+        <v>250.68720720720725</v>
+      </c>
+      <c r="K11" s="18">
+        <f>+K9+K10</f>
+        <v>3335</v>
+      </c>
+      <c r="L11" s="15">
+        <f>+L10+L9</f>
+        <v>3091.1902342342341</v>
+      </c>
+      <c r="M11" s="15">
+        <f>K11-L11</f>
+        <v>243.80976576576586</v>
+      </c>
+      <c r="N11" s="16">
+        <f>+N10+N9</f>
+        <v>400941.44144144148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="24"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="J14" s="19">
+        <v>1</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="20">
+        <v>7.5941758850304505E-2</v>
+      </c>
+      <c r="C15" s="21">
+        <v>7.5581938760349535E-2</v>
+      </c>
+      <c r="D15" s="20">
+        <v>7.5222118670394578E-2</v>
+      </c>
+      <c r="E15" s="20">
+        <v>7.4502478490484497E-2</v>
+      </c>
+      <c r="F15" s="20">
+        <v>7.4142658400529401E-2</v>
+      </c>
+      <c r="G15" s="20">
+        <v>7.3782838310574431E-2</v>
+      </c>
+      <c r="H15" s="20">
+        <v>7.3106376541459031E-2</v>
+      </c>
+      <c r="I15" s="20">
+        <v>7.3106376541459031E-2</v>
+      </c>
+      <c r="J15" s="20">
+        <v>7.3106376541459031E-2</v>
+      </c>
+      <c r="L15" s="27">
+        <f>+M11/K11</f>
+        <v>7.3106376541459031E-2</v>
+      </c>
+      <c r="M15" s="28">
+        <f>+(J15-C15)/C15*100</f>
+        <v>-3.2753356946027288</v>
+      </c>
+      <c r="N15" s="27">
+        <f>+(J15-C15)/C15</f>
+        <v>-3.2753356946027289E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L19" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="16">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="20" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L20" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L21" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="16">
+        <f>+E2*M19*M20</f>
+        <v>74037000</v>
+      </c>
+    </row>
+    <row r="22" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L22" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="16">
+        <f>+M15/100*M21*-1</f>
+        <v>2424960.2882130225</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C9" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/predictions/Case scenarios of collections.xlsx
+++ b/predictions/Case scenarios of collections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b511a50edbd69fea/Documentos/Github Proyects/Credit-default-model/predictions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1110" documentId="8_{F61F1D14-5F96-4CD4-82B2-3CCF8C5042FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E3B267C-4A92-4958-A920-78668FF3256F}"/>
+  <xr:revisionPtr revIDLastSave="1125" documentId="8_{F61F1D14-5F96-4CD4-82B2-3CCF8C5042FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74333B7E-7FF6-4D7C-928D-7AA7E8C82952}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E06815C3-D8EC-40BE-AF15-B3E61E3D0F0F}"/>
   </bookViews>
@@ -190,12 +190,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -277,11 +279,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -298,23 +301,26 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2825,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E8E107-4431-4C3D-BEE3-A95E95AE3123}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2843,18 +2849,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="28"/>
+      <c r="D1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="28"/>
       <c r="J1" s="17" t="s">
         <v>28</v>
       </c>
@@ -2990,7 +2996,7 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <f>+E4/H3</f>
         <v>489.00000000000006</v>
       </c>
@@ -2999,14 +3005,14 @@
       <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <f>+E2-E5</f>
         <v>3679</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -3205,7 +3211,7 @@
         <f>+J9+J10</f>
         <v>389.98999999999984</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="24">
         <f>+K9+K10</f>
         <v>4168</v>
       </c>
@@ -3223,29 +3229,29 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
+      <c r="B12" s="23"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="26" t="s">
+      <c r="N13" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L14" s="27">
+      <c r="L14" s="26">
         <f>+M11/K11</f>
         <v>8.6731525911708213E-2</v>
       </c>
-      <c r="M14" s="28">
-        <f>+(J17-C17)/C17*100</f>
-        <v>-3.1747689835274233</v>
-      </c>
-      <c r="N14" s="27">
+      <c r="M14" s="27">
+        <f>+(J17-C17)*100</f>
+        <v>-0.28438099808060502</v>
+      </c>
+      <c r="N14" s="26">
         <f>+(J17-C17)/C17</f>
         <v>-3.1747689835274234E-2</v>
       </c>
@@ -3301,14 +3307,14 @@
       <c r="J16" s="19">
         <v>1</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="25" t="s">
         <v>47</v>
       </c>
       <c r="M16" s="16">
         <v>37000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -3339,15 +3345,15 @@
       <c r="J17" s="21">
         <v>8.6731525911708213E-2</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="25" t="s">
         <v>48</v>
       </c>
       <c r="M17" s="7">
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L18" s="26" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L18" s="25" t="s">
         <v>45</v>
       </c>
       <c r="M18" s="16">
@@ -3355,14 +3361,15 @@
         <v>92529600</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L19" s="26" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L19" s="25" t="s">
         <v>46</v>
       </c>
       <c r="M19" s="16">
         <f>+M14/100*M18*-1</f>
-        <v>2937601.041381991</v>
-      </c>
+        <v>263136.59999999148</v>
+      </c>
+      <c r="O19" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3383,7 +3390,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3400,18 +3407,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="28"/>
+      <c r="D1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="28"/>
       <c r="J1" s="17" t="s">
         <v>28</v>
       </c>
@@ -3547,7 +3554,7 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <f>+E4/H3</f>
         <v>337.2072072072072</v>
       </c>
@@ -3556,14 +3563,14 @@
       <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <f>+E2-E5</f>
         <v>2997.7927927927926</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -3780,7 +3787,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
+      <c r="B12" s="23"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -3833,13 +3840,13 @@
       <c r="J14" s="19">
         <v>1</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="26" t="s">
+      <c r="N14" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3874,21 +3881,21 @@
       <c r="J15" s="20">
         <v>7.3106376541459031E-2</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="26">
         <f>+M11/K11</f>
         <v>7.3106376541459031E-2</v>
       </c>
-      <c r="M15" s="28">
-        <f>+(J15-C15)/C15*100</f>
-        <v>-3.2753356946027288</v>
-      </c>
-      <c r="N15" s="27">
+      <c r="M15" s="29">
+        <f>+(J15-C15)*100</f>
+        <v>-0.24755622188905035</v>
+      </c>
+      <c r="N15" s="26">
         <f>+(J15-C15)/C15</f>
         <v>-3.2753356946027289E-2</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L19" s="26" t="s">
+      <c r="L19" s="25" t="s">
         <v>47</v>
       </c>
       <c r="M19" s="16">
@@ -3896,7 +3903,7 @@
       </c>
     </row>
     <row r="20" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L20" s="26" t="s">
+      <c r="L20" s="25" t="s">
         <v>48</v>
       </c>
       <c r="M20" s="7">
@@ -3904,7 +3911,7 @@
       </c>
     </row>
     <row r="21" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L21" s="26" t="s">
+      <c r="L21" s="25" t="s">
         <v>45</v>
       </c>
       <c r="M21" s="16">
@@ -3913,12 +3920,12 @@
       </c>
     </row>
     <row r="22" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L22" s="26" t="s">
+      <c r="L22" s="25" t="s">
         <v>46</v>
       </c>
       <c r="M22" s="16">
         <f>+M15/100*M21*-1</f>
-        <v>2424960.2882130225</v>
+        <v>183283.1999999962</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/Case scenarios of collections.xlsx
+++ b/predictions/Case scenarios of collections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b511a50edbd69fea/Documentos/Github Proyects/Credit-default-model/predictions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1125" documentId="8_{F61F1D14-5F96-4CD4-82B2-3CCF8C5042FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74333B7E-7FF6-4D7C-928D-7AA7E8C82952}"/>
+  <xr:revisionPtr revIDLastSave="1131" documentId="8_{F61F1D14-5F96-4CD4-82B2-3CCF8C5042FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56D0D5BF-4C1C-4C09-933C-4BA8858F52A5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E06815C3-D8EC-40BE-AF15-B3E61E3D0F0F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
   <si>
     <t>Defaults</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Outstanding</t>
+  </si>
+  <si>
+    <t>Alerts %</t>
   </si>
 </sst>
 </file>
@@ -197,7 +200,7 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -313,11 +316,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -2832,7 +2835,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2849,18 +2852,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="30"/>
+      <c r="D1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="E1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="30"/>
       <c r="J1" s="17" t="s">
         <v>28</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -2966,7 +2969,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -3111,7 +3114,7 @@
       </c>
       <c r="N9" s="16">
         <f>+(G9+I9)*$B$2+(H9+J9)*$B$4</f>
-        <v>446139.99999999994</v>
+        <v>203510</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -3168,7 +3171,7 @@
       </c>
       <c r="N10" s="16">
         <f>+(G10+I10)*$B$2+(H10+J10)*$B$4</f>
-        <v>68460</v>
+        <v>29340</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -3225,7 +3228,7 @@
       </c>
       <c r="N11" s="16">
         <f>+N10+N9</f>
-        <v>514599.99999999994</v>
+        <v>232850</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -3278,7 +3281,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B16" s="11">
         <v>0</v>
@@ -3311,7 +3314,7 @@
         <v>47</v>
       </c>
       <c r="M16" s="16">
-        <v>37000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -3349,7 +3352,7 @@
         <v>48</v>
       </c>
       <c r="M17" s="7">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -3358,7 +3361,7 @@
       </c>
       <c r="M18" s="16">
         <f>+E2*M16*M17</f>
-        <v>92529600</v>
+        <v>83360000</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -3367,9 +3370,9 @@
       </c>
       <c r="M19" s="16">
         <f>+M14/100*M18*-1</f>
-        <v>263136.59999999148</v>
-      </c>
-      <c r="O19" s="30"/>
+        <v>237059.99999999235</v>
+      </c>
+      <c r="O19" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3407,18 +3410,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="30"/>
+      <c r="D1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="E1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="30"/>
       <c r="J1" s="17" t="s">
         <v>28</v>
       </c>
@@ -3885,7 +3888,7 @@
         <f>+M11/K11</f>
         <v>7.3106376541459031E-2</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="28">
         <f>+(J15-C15)*100</f>
         <v>-0.24755622188905035</v>
       </c>
